--- a/medicine/Mort/Cimetière_Sainte-Hélène_de_Strasbourg/Cimetière_Sainte-Hélène_de_Strasbourg.xlsx
+++ b/medicine/Mort/Cimetière_Sainte-Hélène_de_Strasbourg/Cimetière_Sainte-Hélène_de_Strasbourg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Sainte-H%C3%A9l%C3%A8ne_de_Strasbourg</t>
+          <t>Cimetière_Sainte-Hélène_de_Strasbourg</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière Sainte-Hélène est un très ancien cimetière, situé aux portes de Strasbourg et géré par cette commune dont l'entrée principale se trouve près de la place de Haguenau, à l'intersection de la route de Brumath et de la route de Bischwiller à Schiltigheim, à l'ombre de l'autoroute A35.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Sainte-H%C3%A9l%C3%A8ne_de_Strasbourg</t>
+          <t>Cimetière_Sainte-Hélène_de_Strasbourg</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière a été créé en 1527, sur l'emplacement de l'ancienne église Sainte-Hélène (Rotenkirche), succédant au cimetière médiéval qui entourait cette église auparavant. Une léproserie se trouvait à proximité.
 La partie nord du cimetière est fortifiée en 1815 pour la défense de Strasbourg. Après la cession de l'Alsace et de la Lorraine à l'Allemagne au lendemain de la guerre de 1870, Strasbourg, devenue capitale du nouveau Reichsland, se développe rapidement et le cimetière connaît alors une extension importante entre 1871 et 1918, devenant le lieu de sépulture de nombreuses personnalités.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Sainte-H%C3%A9l%C3%A8ne_de_Strasbourg</t>
+          <t>Cimetière_Sainte-Hélène_de_Strasbourg</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Parmi les personnalités inhumées au cimetière Sainte-Hélène figurent plusieurs anciens maires de Strasbourg, notamment Émile Küss – dont la grande stèle en grès rose à poudingue se dresse au carrefour central du cimetière –, également Jean-Louis-Édouard Kratz et Charles Altorffer, l'historien et conservateur de musées Adolphe Seyboth, le restaurateur de l’horloge astronomique de la cathédrale de Strasbourg Jean-Baptiste Schwilgué, le sculpteur-orfèvre Joachim-Frédéric Kirstein, le médecin et professeur de botanique Frédéric Kirschleger, le magistrat-poète Auguste Lamey, le professeur de théologie protestante Jean-Frédéric Bruch, le pasteur et théologien Charles Théodore Gérold, les chirurgiens Jean Lobstein et Eugène Koeberlé, le chimiste et manufacturier Jean-Michel Haussmann, Johann Carolus, éditeur de la première gazette hebdomadaire du monde, et le géophysicien et sismologue Edmond Rothé, premier directeur de l'institut de physique du globe de Strasbourg. 
 Les monuments funéraires en grès rose caractéristiques du sculpteur André Friederich sont bien représentés : il réalisa, outre ceux du peintre Gabriel-Christophe Guérin, du notaire et conseiller municipal Jean-Jacques Weigel et de quelques autres personnes moins connues, le monument de sa première épouse Maria Anna, morte en couches, et celui de sa fille Amélie, disparue à 24 ans. Cette dernière tombe abrite également sa propre sépulture et celle de sa seconde femme Marie-Antoinette.
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Sainte-H%C3%A9l%C3%A8ne_de_Strasbourg</t>
+          <t>Cimetière_Sainte-Hélène_de_Strasbourg</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Enclos de famille</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Enclos des familles Dietrich et Turckheim
 Un obélisque en grès jaune signale la tombe de Sybille Louise Ochs (1755-1806), épouse de Philippe Frédéric de Dietrich (1748-1793). Après des études de droit - où il côtoie Goethe inscrit à la Faculté de Droit en 1770 la même année que lui, le baron Philippe-Frédéric de Dietrich fréquente les milieux éclairés de son temps et est en relation avec de nombreuses sociétés savantes en Europe (avec un intérêt marqué pour la minéralogie). Il joue un rôle important au moment de la Révolution comme "commissaire royal" en 1789 et met en place la Garde Nationale de Strasbourg. Philippe-Frédéric de Dietrich est aussi le premier maire de Strasbourg, de 1790 à 1792. 
@@ -600,7 +618,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Sainte-H%C3%A9l%C3%A8ne_de_Strasbourg</t>
+          <t>Cimetière_Sainte-Hélène_de_Strasbourg</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -618,7 +636,9 @@
           <t>Illustrations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Sépulture de Maria Anna Friederich (1807-1838), première épouse morte en couches du sculpteur André Friederich.
